--- a/DevNotesBook.xlsx
+++ b/DevNotesBook.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="MainBody" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="RadrWorkSheet" sheetId="6" r:id="rId5"/>
+    <sheet name="Manufacturers" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Item</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>Mass</t>
   </si>
@@ -34,23 +34,183 @@
     <t>Durability</t>
   </si>
   <si>
-    <t>Stability</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Defense</t>
+  </si>
+  <si>
+    <t>BODY</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Power Required</t>
+  </si>
+  <si>
+    <t>CONTROL</t>
+  </si>
+  <si>
+    <t>Responsiveness</t>
+  </si>
+  <si>
+    <t>Radar</t>
+  </si>
+  <si>
+    <t>Engine/Power Plant</t>
+  </si>
+  <si>
+    <t>Power Production</t>
+  </si>
+  <si>
+    <t>Thrusters</t>
+  </si>
+  <si>
+    <t>Max Thrust</t>
+  </si>
+  <si>
+    <t>WEAPONS</t>
+  </si>
+  <si>
+    <t>Power Per Shot</t>
+  </si>
+  <si>
+    <t>Pay Load</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Blast Radius</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Measured in Kilotons (1000 tons, 1 milion kilograms</t>
+  </si>
+  <si>
+    <t>sensativity</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>The type of compnent</t>
+  </si>
+  <si>
+    <t>What is it called</t>
+  </si>
+  <si>
+    <t>How much mass does it have (in metric tons)</t>
+  </si>
+  <si>
+    <t>draw from generator</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>derived from mass and power</t>
+  </si>
+  <si>
+    <t>stealth</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>adds to durabilty (0-1000)</t>
+  </si>
+  <si>
+    <t>total damage it can take (durived from mass and armor)</t>
+  </si>
+  <si>
+    <t>reduces damage (0 to 10%)</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>modifies signature (0 to 100)</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>30 to 60 avg</t>
+  </si>
+  <si>
+    <t>25 to 40 avg</t>
+  </si>
+  <si>
+    <t>100 to 150 avg</t>
+  </si>
+  <si>
+    <t>100 to 200 avg</t>
+  </si>
+  <si>
+    <t>2.5% avg</t>
+  </si>
+  <si>
+    <t>Branson</t>
+  </si>
+  <si>
+    <t>Specializes in heavy equipment used for mining asteroids</t>
+  </si>
+  <si>
+    <t>Murker</t>
+  </si>
+  <si>
+    <t>Often called "Mercer" due to their manufacturing support vessels, most notably a line of search and rescue ships used as ambulances in the mines</t>
+  </si>
+  <si>
+    <t>Bronson HT-230 Tug</t>
+  </si>
+  <si>
+    <t>Murker FR-111 Rescue</t>
+  </si>
+  <si>
+    <t>Bronson DD-406 Driller</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>powerMod</t>
+  </si>
+  <si>
+    <t>Stealth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,13 +225,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,9 +282,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -392,147 +599,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:H24"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>20</v>
+      <c r="J1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -542,34 +707,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,26 +822,744 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1">
         <f>A1*B1*C1*D1*E1</f>
-        <v>100000</v>
+        <v>1875</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="51.6640625" customWidth="1"/>
+    <col min="2" max="2" width="77.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>99</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
+    <col min="2" max="3" width="128" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" customWidth="1"/>
+    <col min="5" max="5" width="0.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <f>IF(B3=1, 50, IF(B3=2, 100,0))</f>
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <f>F3+(G3*2)+H3</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>